--- a/medicine/Enfance/Le_Prince_de_la_brume/Le_Prince_de_la_brume.xlsx
+++ b/medicine/Enfance/Le_Prince_de_la_brume/Le_Prince_de_la_brume.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Prince de la brume (titre original : El principe de la niebla) est un roman de fantastique espagnol de Carlos Ruiz Zafón qui est paru en 1993. Il est publié en français en 2011 aux éditions Robert Laffont dans une traduction de François Maspero et constitue le premier tome du Cycle de la brume.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1943, pour fuir la guerre, la famille Carver, composée du père Maximilian, de la mère Andrea et de leurs trois enfants (Alicia, quinze ans, Max, treize ans et Irina, huit ans) quitte sa ville pour un village de la côte dans lequel ils prennent possession d'une ancienne maison ayant appartenu au docteur Richard Fleischman. Maximilian apprend à sa famille que cette maison a été abandonnée à la suite du décès de Jacob Fleischman par noyade à l'âge de sept ans et à celui de son père peu de temps après, sa santé s'étant bien dégradée à la suite de cet accident.
 Max et sa sœur Alicia nouent rapidement une amitié avec Roland, un adolescent plus âgé que lui. Roland a perdu ses parents et est élevé par Victor Kray, le gardien du phare qu'il considère comme son grand-père. Petit à petit, Max fait face à d'étranges manifestations surnaturelles il découvre que Roland est au courant d'une certaine malédiction tournant autour du village et de l'ancienne maison des Fleischman. Sur les conseils de Roland, les deux garçons interrogent Victor Kray, qui leur révèle une histoire étonnante. Un homme, prénommé Caïn, est à la base de cette malédiction.
@@ -547,7 +561,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>El principe de la niebla, Edebé, 1993, 221 p.  (ISBN 978-84-236-3256-5)
 Le Prince de la brume, Robert Laffont, 3 novembre 2011, trad. François Maspero, 210 p.  (ISBN 978-2-221-12289-1)
